--- a/도서대여 프로젝트/샘플-도서정보(2021-04-29).xlsx
+++ b/도서대여 프로젝트/샘플-도서정보(2021-04-29).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="708">
   <si>
     <t>다산초당</t>
   </si>
@@ -1057,54 +1057,6 @@
     <t>A0034</t>
   </si>
   <si>
-    <t>A0040</t>
-  </si>
-  <si>
-    <t>A0049</t>
-  </si>
-  <si>
-    <t>A0100</t>
-  </si>
-  <si>
-    <t>A0052</t>
-  </si>
-  <si>
-    <t>A0084</t>
-  </si>
-  <si>
-    <t>A0076</t>
-  </si>
-  <si>
-    <t>A0072</t>
-  </si>
-  <si>
-    <t>A0079</t>
-  </si>
-  <si>
-    <t>A0090</t>
-  </si>
-  <si>
-    <t>A0038</t>
-  </si>
-  <si>
-    <t>A0080</t>
-  </si>
-  <si>
-    <t>A0097</t>
-  </si>
-  <si>
-    <t>A0069</t>
-  </si>
-  <si>
-    <t>A0053</t>
-  </si>
-  <si>
-    <t>A0045</t>
-  </si>
-  <si>
-    <t>A0066</t>
-  </si>
-  <si>
     <t>갈한수</t>
   </si>
   <si>
@@ -2127,6 +2079,135 @@
   <si>
     <t>발행일</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴파워 - 새로운 권력의 탄생</t>
+  </si>
+  <si>
+    <t>'9791162540466</t>
+  </si>
+  <si>
+    <t>'9791188850327</t>
+  </si>
+  <si>
+    <t>'9791162540558</t>
+  </si>
+  <si>
+    <t>'9791162540695</t>
+  </si>
+  <si>
+    <t>'9791188850518</t>
+  </si>
+  <si>
+    <t>'9791188850303</t>
+  </si>
+  <si>
+    <t>'9791188850501</t>
+  </si>
+  <si>
+    <t>'9791188850341</t>
+  </si>
+  <si>
+    <t>'9791162540527</t>
+  </si>
+  <si>
+    <t>'9791162540671</t>
+  </si>
+  <si>
+    <t>'9791188850440</t>
+  </si>
+  <si>
+    <t>'9791162540718</t>
+  </si>
+  <si>
+    <t>'9791162540732</t>
+  </si>
+  <si>
+    <t>'9791188850280</t>
+  </si>
+  <si>
+    <t>'9791188850549</t>
+  </si>
+  <si>
+    <t>'9791188850266</t>
+  </si>
+  <si>
+    <t>'9791186805398</t>
+  </si>
+  <si>
+    <t>'9791162540770</t>
+  </si>
+  <si>
+    <t>'9791162540619</t>
+  </si>
+  <si>
+    <t>'9791162540640</t>
+  </si>
+  <si>
+    <t>'9791162540572</t>
+  </si>
+  <si>
+    <t>'9791188850389</t>
+  </si>
+  <si>
+    <t>'9791188850426</t>
+  </si>
+  <si>
+    <t>'9791188850471</t>
+  </si>
+  <si>
+    <t>'9791162540480</t>
+  </si>
+  <si>
+    <t>'9791162540503</t>
+  </si>
+  <si>
+    <t>'9791188850365</t>
+  </si>
+  <si>
+    <t>'9791188850402</t>
+  </si>
+  <si>
+    <t>'9791162540756</t>
+  </si>
+  <si>
+    <t>'9791162540596</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서명</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사명</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사대표</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자연락처</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판일</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2790,7 +2871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2835,6 +2916,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3161,7 +3245,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -3188,7 +3272,7 @@
         <v>292</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>205</v>
@@ -3207,11 +3291,12 @@
       <c r="C2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>312</v>
+      <c r="D2" s="7" t="str">
+        <f ca="1">"A"&amp;TEXT(RANDBETWEEN(1,34),"0000")</f>
+        <v>A0023</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="F2" s="9">
         <v>272</v>
@@ -3230,11 +3315,12 @@
       <c r="C3" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>322</v>
+      <c r="D3" s="7" t="str">
+        <f t="shared" ref="D3:D31" ca="1" si="0">"A"&amp;TEXT(RANDBETWEEN(1,34),"0000")</f>
+        <v>A0028</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="F3" s="9">
         <v>132</v>
@@ -3253,11 +3339,12 @@
       <c r="C4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>340</v>
+      <c r="D4" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0033</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="F4" s="9">
         <v>388</v>
@@ -3276,11 +3363,12 @@
       <c r="C5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>341</v>
+      <c r="D5" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0028</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="F5" s="9">
         <v>440</v>
@@ -3299,11 +3387,12 @@
       <c r="C6" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>342</v>
+      <c r="D6" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0002</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="F6" s="9">
         <v>280</v>
@@ -3322,11 +3411,12 @@
       <c r="C7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>343</v>
+      <c r="D7" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0032</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="F7" s="9">
         <v>368</v>
@@ -3345,11 +3435,12 @@
       <c r="C8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>326</v>
+      <c r="D8" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0013</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="F8" s="9">
         <v>536</v>
@@ -3368,11 +3459,12 @@
       <c r="C9" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>307</v>
+      <c r="D9" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0030</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="F9" s="9">
         <v>232</v>
@@ -3391,11 +3483,12 @@
       <c r="C10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>323</v>
+      <c r="D10" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0028</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="F10" s="9">
         <v>264</v>
@@ -3414,11 +3507,12 @@
       <c r="C11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>344</v>
+      <c r="D11" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0019</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="F11" s="9">
         <v>500</v>
@@ -3437,11 +3531,12 @@
       <c r="C12" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>345</v>
+      <c r="D12" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0002</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="F12" s="9">
         <v>248</v>
@@ -3460,11 +3555,12 @@
       <c r="C13" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>346</v>
+      <c r="D13" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0012</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="F13" s="9">
         <v>376</v>
@@ -3483,11 +3579,12 @@
       <c r="C14" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>333</v>
+      <c r="D14" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0007</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="F14" s="9">
         <v>360</v>
@@ -3506,11 +3603,12 @@
       <c r="C15" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>332</v>
+      <c r="D15" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0016</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="F15" s="9">
         <v>416</v>
@@ -3529,11 +3627,12 @@
       <c r="C16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>347</v>
+      <c r="D16" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0004</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="F16" s="9">
         <v>252</v>
@@ -3552,11 +3651,12 @@
       <c r="C17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>309</v>
+      <c r="D17" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0021</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="F17" s="9">
         <v>456</v>
@@ -3575,11 +3675,12 @@
       <c r="C18" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>348</v>
+      <c r="D18" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0018</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="F18" s="9">
         <v>252</v>
@@ -3598,11 +3699,12 @@
       <c r="C19" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>349</v>
+      <c r="D19" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0018</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="F19" s="9">
         <v>240</v>
@@ -3621,11 +3723,12 @@
       <c r="C20" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>350</v>
+      <c r="D20" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0011</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="F20" s="9">
         <v>280</v>
@@ -3644,11 +3747,12 @@
       <c r="C21" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>311</v>
+      <c r="D21" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0028</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="F21" s="9">
         <v>316</v>
@@ -3667,11 +3771,12 @@
       <c r="C22" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>351</v>
+      <c r="D22" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0029</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="F22" s="9">
         <v>256</v>
@@ -3690,11 +3795,12 @@
       <c r="C23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>326</v>
+      <c r="D23" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0031</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="F23" s="9">
         <v>272</v>
@@ -3713,11 +3819,12 @@
       <c r="C24" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>316</v>
+      <c r="D24" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0016</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="F24" s="9">
         <v>232</v>
@@ -3736,11 +3843,12 @@
       <c r="C25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>322</v>
+      <c r="D25" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0021</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="F25" s="9">
         <v>236</v>
@@ -3759,11 +3867,12 @@
       <c r="C26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>352</v>
+      <c r="D26" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0006</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="F26" s="9">
         <v>376</v>
@@ -3782,11 +3891,12 @@
       <c r="C27" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>353</v>
+      <c r="D27" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0024</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="F27" s="9">
         <v>228</v>
@@ -3805,11 +3915,12 @@
       <c r="C28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>354</v>
+      <c r="D28" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0017</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="F28" s="9">
         <v>232</v>
@@ -3828,11 +3939,12 @@
       <c r="C29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>355</v>
+      <c r="D29" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0016</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="F29" s="9">
         <v>240</v>
@@ -3851,11 +3963,12 @@
       <c r="C30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>335</v>
+      <c r="D30" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0028</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="F30" s="9">
         <v>464</v>
@@ -3874,11 +3987,12 @@
       <c r="C31" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>310</v>
+      <c r="D31" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0031</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="F31" s="9">
         <v>436</v>
@@ -3898,7 +4012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="D11" sqref="D11:E57"/>
     </sheetView>
   </sheetViews>
@@ -3936,13 +4050,13 @@
         <v>25</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26.25" customHeight="1">
@@ -3953,13 +4067,13 @@
         <v>58</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26.25" customHeight="1">
@@ -3970,13 +4084,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26.25" customHeight="1">
@@ -3987,13 +4101,13 @@
         <v>65</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="26.25" customHeight="1">
@@ -4004,13 +4118,13 @@
         <v>72</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26.25" customHeight="1">
@@ -4021,13 +4135,13 @@
         <v>42</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26.25" customHeight="1">
@@ -4038,13 +4152,13 @@
         <v>67</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.25" customHeight="1">
@@ -4055,13 +4169,13 @@
         <v>33</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="26.25" customHeight="1">
@@ -4072,13 +4186,13 @@
         <v>59</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="26.25" customHeight="1">
@@ -4089,13 +4203,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="26.25" customHeight="1">
@@ -4106,13 +4220,13 @@
         <v>88</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="26.25" customHeight="1">
@@ -4123,13 +4237,13 @@
         <v>74</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="26.25" customHeight="1">
@@ -4140,13 +4254,13 @@
         <v>26</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="26.25" customHeight="1">
@@ -4157,13 +4271,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="26.25" customHeight="1">
@@ -4174,13 +4288,13 @@
         <v>18</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.25" customHeight="1">
@@ -4191,13 +4305,13 @@
         <v>94</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1">
@@ -4208,13 +4322,13 @@
         <v>80</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" customHeight="1">
@@ -4225,13 +4339,13 @@
         <v>95</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="26.25" customHeight="1">
@@ -4242,13 +4356,13 @@
         <v>99</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="26.25" customHeight="1">
@@ -4259,13 +4373,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="26.25" customHeight="1">
@@ -4276,13 +4390,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="26.25" customHeight="1">
@@ -4293,13 +4407,13 @@
         <v>79</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="26.25" customHeight="1">
@@ -4310,13 +4424,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="26.25" customHeight="1">
@@ -4327,13 +4441,13 @@
         <v>76</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="26.25" customHeight="1">
@@ -4344,13 +4458,13 @@
         <v>85</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="26.25" customHeight="1">
@@ -4361,13 +4475,13 @@
         <v>75</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="26.25" customHeight="1">
@@ -4378,13 +4492,13 @@
         <v>30</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="26.25" customHeight="1">
@@ -4395,13 +4509,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="26.25" customHeight="1">
@@ -4412,13 +4526,13 @@
         <v>87</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="26.25" customHeight="1">
@@ -4429,13 +4543,13 @@
         <v>50</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="26.25" customHeight="1">
@@ -4446,13 +4560,13 @@
         <v>70</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="26.25" customHeight="1">
@@ -4463,13 +4577,13 @@
         <v>10</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="26.25" customHeight="1">
@@ -4480,13 +4594,13 @@
         <v>93</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="26.25" customHeight="1">
@@ -4497,13 +4611,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="26.25" customHeight="1">
@@ -4514,13 +4628,13 @@
         <v>44</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="26.25" customHeight="1">
@@ -4531,13 +4645,13 @@
         <v>96</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="26.25" customHeight="1">
@@ -4548,13 +4662,13 @@
         <v>91</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="26.25" customHeight="1">
@@ -4565,13 +4679,13 @@
         <v>36</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="26.25" customHeight="1">
@@ -4582,13 +4696,13 @@
         <v>43</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="26.25" customHeight="1">
@@ -4599,13 +4713,13 @@
         <v>71</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="26.25" customHeight="1">
@@ -4616,13 +4730,13 @@
         <v>52</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="26.25" customHeight="1">
@@ -4633,13 +4747,13 @@
         <v>86</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="26.25" customHeight="1">
@@ -4650,13 +4764,13 @@
         <v>55</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="26.25" customHeight="1">
@@ -4667,13 +4781,13 @@
         <v>92</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="26.25" customHeight="1">
@@ -4684,13 +4798,13 @@
         <v>47</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="26.25" customHeight="1">
@@ -4701,13 +4815,13 @@
         <v>63</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="26.25" customHeight="1">
@@ -4718,13 +4832,13 @@
         <v>97</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="26.25" customHeight="1">
@@ -4735,13 +4849,13 @@
         <v>61</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="26.25" customHeight="1">
@@ -4752,13 +4866,13 @@
         <v>54</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="26.25" customHeight="1">
@@ -4769,13 +4883,13 @@
         <v>49</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="26.25" customHeight="1">
@@ -4786,13 +4900,13 @@
         <v>38</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="26.25" customHeight="1">
@@ -4803,13 +4917,13 @@
         <v>17</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="26.25" customHeight="1">
@@ -4820,13 +4934,13 @@
         <v>66</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="26.25" customHeight="1">
@@ -4837,13 +4951,13 @@
         <v>73</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="26.25" customHeight="1">
@@ -4854,13 +4968,13 @@
         <v>27</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="26.25" customHeight="1">
@@ -4871,13 +4985,13 @@
         <v>98</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="26.25" customHeight="1">
@@ -4888,13 +5002,13 @@
         <v>56</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="26.25" customHeight="1">
@@ -4905,13 +5019,13 @@
         <v>35</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="26.25" customHeight="1">
@@ -4922,13 +5036,13 @@
         <v>24</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="26.25" customHeight="1">
@@ -4939,13 +5053,13 @@
         <v>45</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="26.25" customHeight="1">
@@ -4956,13 +5070,13 @@
         <v>100</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="26.25" customHeight="1">
@@ -4973,13 +5087,13 @@
         <v>78</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="26.25" customHeight="1">
@@ -4990,13 +5104,13 @@
         <v>5</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="26.25" customHeight="1">
@@ -5007,13 +5121,13 @@
         <v>9</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="26.25" customHeight="1">
@@ -5024,13 +5138,13 @@
         <v>46</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="26.25" customHeight="1">
@@ -5041,13 +5155,13 @@
         <v>81</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="26.25" customHeight="1">
@@ -5058,13 +5172,13 @@
         <v>23</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="26.25" customHeight="1">
@@ -5075,13 +5189,13 @@
         <v>84</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="26.25" customHeight="1">
@@ -5092,13 +5206,13 @@
         <v>16</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="26.25" customHeight="1">
@@ -5109,13 +5223,13 @@
         <v>14</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="26.25" customHeight="1">
@@ -5126,13 +5240,13 @@
         <v>22</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="26.25" customHeight="1">
@@ -5143,13 +5257,13 @@
         <v>6</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="26.25" customHeight="1">
@@ -5160,13 +5274,13 @@
         <v>4</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="26.25" customHeight="1">
@@ -5177,13 +5291,13 @@
         <v>0</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="26.25" customHeight="1">
@@ -5194,13 +5308,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="26.25" customHeight="1">
@@ -5211,13 +5325,13 @@
         <v>82</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="26.25" customHeight="1">
@@ -5228,13 +5342,13 @@
         <v>83</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="26.25" customHeight="1">
@@ -5245,13 +5359,13 @@
         <v>51</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="26.25" customHeight="1">
@@ -5262,13 +5376,13 @@
         <v>68</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="26.25" customHeight="1">
@@ -5279,13 +5393,13 @@
         <v>53</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="26.25" customHeight="1">
@@ -5296,13 +5410,13 @@
         <v>69</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="26.25" customHeight="1">
@@ -5313,13 +5427,13 @@
         <v>32</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="26.25" customHeight="1">
@@ -5330,13 +5444,13 @@
         <v>34</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="26.25" customHeight="1">
@@ -5347,13 +5461,13 @@
         <v>31</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="26.25" customHeight="1">
@@ -5364,13 +5478,13 @@
         <v>89</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="26.25" customHeight="1">
@@ -5381,13 +5495,13 @@
         <v>41</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="26.25" customHeight="1">
@@ -5398,13 +5512,13 @@
         <v>39</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="26.25" customHeight="1">
@@ -5415,13 +5529,13 @@
         <v>28</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="26.25" customHeight="1">
@@ -5432,13 +5546,13 @@
         <v>11</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="26.25" customHeight="1">
@@ -5449,13 +5563,13 @@
         <v>90</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="26.25" customHeight="1">
@@ -5466,13 +5580,13 @@
         <v>12</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="26.25" customHeight="1">
@@ -5483,13 +5597,13 @@
         <v>48</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="26.25" customHeight="1">
@@ -5500,13 +5614,13 @@
         <v>29</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="26.25" customHeight="1">
@@ -5517,13 +5631,13 @@
         <v>77</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="26.25" customHeight="1">
@@ -5534,13 +5648,13 @@
         <v>15</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="26.25" customHeight="1">
@@ -5551,13 +5665,13 @@
         <v>37</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="26.25" customHeight="1">
@@ -5568,13 +5682,13 @@
         <v>60</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="26.25" customHeight="1">
@@ -5585,13 +5699,13 @@
         <v>62</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="26.25" customHeight="1">
@@ -5602,13 +5716,13 @@
         <v>57</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="26.25" customHeight="1">
@@ -5619,13 +5733,13 @@
         <v>40</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -5643,7 +5757,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5676,10 +5790,10 @@
         <v>282</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1">
@@ -5690,10 +5804,10 @@
         <v>239</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1">
@@ -5704,10 +5818,10 @@
         <v>296</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1">
@@ -5718,10 +5832,10 @@
         <v>236</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1">
@@ -5732,10 +5846,10 @@
         <v>215</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1">
@@ -5746,10 +5860,10 @@
         <v>259</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.5" customHeight="1">
@@ -5760,10 +5874,10 @@
         <v>212</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" customHeight="1">
@@ -5774,10 +5888,10 @@
         <v>285</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1">
@@ -5788,10 +5902,10 @@
         <v>245</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.5" customHeight="1">
@@ -5802,10 +5916,10 @@
         <v>265</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22.5" customHeight="1">
@@ -5816,10 +5930,10 @@
         <v>268</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.5" customHeight="1">
@@ -5830,10 +5944,10 @@
         <v>297</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.5" customHeight="1">
@@ -5844,10 +5958,10 @@
         <v>253</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.5" customHeight="1">
@@ -5858,10 +5972,10 @@
         <v>242</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="22.5" customHeight="1">
@@ -5872,10 +5986,10 @@
         <v>262</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.5" customHeight="1">
@@ -5886,10 +6000,10 @@
         <v>279</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1">
@@ -5900,10 +6014,10 @@
         <v>223</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" customHeight="1">
@@ -5914,10 +6028,10 @@
         <v>209</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1">
@@ -5928,10 +6042,10 @@
         <v>274</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1">
@@ -5942,10 +6056,10 @@
         <v>248</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="22.5" customHeight="1">
@@ -5956,10 +6070,10 @@
         <v>256</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.5" customHeight="1">
@@ -5970,10 +6084,10 @@
         <v>220</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="22.5" customHeight="1">
@@ -5984,10 +6098,10 @@
         <v>291</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1">
@@ -5998,10 +6112,10 @@
         <v>288</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1">
@@ -6012,10 +6126,10 @@
         <v>298</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1">
@@ -6026,10 +6140,10 @@
         <v>215</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" customHeight="1">
@@ -6040,10 +6154,10 @@
         <v>299</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="22.5" customHeight="1">
@@ -6054,10 +6168,10 @@
         <v>271</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="22.5" customHeight="1">
@@ -6068,10 +6182,10 @@
         <v>233</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="22.5" customHeight="1">
@@ -6082,10 +6196,10 @@
         <v>228</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="22.5" customHeight="1">
@@ -6096,10 +6210,10 @@
         <v>300</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="22.5" customHeight="1">
@@ -6110,10 +6224,10 @@
         <v>301</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="22.5" customHeight="1">
@@ -6124,10 +6238,10 @@
         <v>302</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="22.5" customHeight="1">
@@ -6138,10 +6252,10 @@
         <v>303</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -6153,13 +6267,829 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G1" t="s">
+        <v>705</v>
+      </c>
+      <c r="H1" t="s">
+        <v>706</v>
+      </c>
+      <c r="I1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G2" s="15">
+        <v>43402</v>
+      </c>
+      <c r="H2">
+        <v>18000</v>
+      </c>
+      <c r="I2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G3" s="15">
+        <v>43433</v>
+      </c>
+      <c r="H3">
+        <v>14000</v>
+      </c>
+      <c r="I3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G4" s="15">
+        <v>43475</v>
+      </c>
+      <c r="H4">
+        <v>15800</v>
+      </c>
+      <c r="I4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" s="15">
+        <v>43549</v>
+      </c>
+      <c r="H5">
+        <v>15000</v>
+      </c>
+      <c r="I5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>673</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>394</v>
+      </c>
+      <c r="G6" s="15">
+        <v>43565</v>
+      </c>
+      <c r="H6">
+        <v>14000</v>
+      </c>
+      <c r="I6">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>674</v>
+      </c>
+      <c r="B7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G7" s="15">
+        <v>43427</v>
+      </c>
+      <c r="H7">
+        <v>13500</v>
+      </c>
+      <c r="I7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>675</v>
+      </c>
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G8" s="15">
+        <v>43565</v>
+      </c>
+      <c r="H8">
+        <v>14000</v>
+      </c>
+      <c r="I8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>676</v>
+      </c>
+      <c r="B9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>427</v>
+      </c>
+      <c r="E9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G9" s="15">
+        <v>43454</v>
+      </c>
+      <c r="H9">
+        <v>14800</v>
+      </c>
+      <c r="I9">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>677</v>
+      </c>
+      <c r="B10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G10" s="15">
+        <v>43449</v>
+      </c>
+      <c r="H10">
+        <v>13500</v>
+      </c>
+      <c r="I10">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>678</v>
+      </c>
+      <c r="B11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>439</v>
+      </c>
+      <c r="G11" s="15">
+        <v>43544</v>
+      </c>
+      <c r="H11">
+        <v>13800</v>
+      </c>
+      <c r="I11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>679</v>
+      </c>
+      <c r="B12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>442</v>
+      </c>
+      <c r="G12" s="15">
+        <v>43539</v>
+      </c>
+      <c r="H12">
+        <v>13800</v>
+      </c>
+      <c r="I12">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>680</v>
+      </c>
+      <c r="B13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>442</v>
+      </c>
+      <c r="E13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="15">
+        <v>43554</v>
+      </c>
+      <c r="H13">
+        <v>13000</v>
+      </c>
+      <c r="I13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>681</v>
+      </c>
+      <c r="B14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>445</v>
+      </c>
+      <c r="E14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" t="s">
+        <v>428</v>
+      </c>
+      <c r="G14" s="15">
+        <v>43555</v>
+      </c>
+      <c r="H14">
+        <v>22000</v>
+      </c>
+      <c r="I14">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>682</v>
+      </c>
+      <c r="B15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>463</v>
+      </c>
+      <c r="G15" s="15">
+        <v>43419</v>
+      </c>
+      <c r="H15">
+        <v>14800</v>
+      </c>
+      <c r="I15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>683</v>
+      </c>
+      <c r="B16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>475</v>
+      </c>
+      <c r="E16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" t="s">
+        <v>416</v>
+      </c>
+      <c r="G16" s="15">
+        <v>43566</v>
+      </c>
+      <c r="H16">
+        <v>13000</v>
+      </c>
+      <c r="I16">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>684</v>
+      </c>
+      <c r="B17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>481</v>
+      </c>
+      <c r="G17" s="15">
+        <v>43404</v>
+      </c>
+      <c r="H17">
+        <v>14000</v>
+      </c>
+      <c r="I17">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>685</v>
+      </c>
+      <c r="B18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>481</v>
+      </c>
+      <c r="E18" t="s">
+        <v>299</v>
+      </c>
+      <c r="F18" t="s">
+        <v>446</v>
+      </c>
+      <c r="G18" s="15">
+        <v>43516</v>
+      </c>
+      <c r="H18">
+        <v>16000</v>
+      </c>
+      <c r="I18">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>686</v>
+      </c>
+      <c r="B19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>481</v>
+      </c>
+      <c r="E19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" t="s">
+        <v>386</v>
+      </c>
+      <c r="G19" s="15">
+        <v>43570</v>
+      </c>
+      <c r="H19">
+        <v>15000</v>
+      </c>
+      <c r="I19">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>687</v>
+      </c>
+      <c r="B20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>490</v>
+      </c>
+      <c r="G20" s="15">
+        <v>43511</v>
+      </c>
+      <c r="H20">
+        <v>14000</v>
+      </c>
+      <c r="I20">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>688</v>
+      </c>
+      <c r="B21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>508</v>
+      </c>
+      <c r="E21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F21" t="s">
+        <v>449</v>
+      </c>
+      <c r="G21" s="15">
+        <v>43522</v>
+      </c>
+      <c r="H21">
+        <v>16000</v>
+      </c>
+      <c r="I21">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>689</v>
+      </c>
+      <c r="B22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>520</v>
+      </c>
+      <c r="G22" s="15">
+        <v>43483</v>
+      </c>
+      <c r="H22">
+        <v>15000</v>
+      </c>
+      <c r="I22">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>690</v>
+      </c>
+      <c r="B23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>523</v>
+      </c>
+      <c r="G23" s="15">
+        <v>43493</v>
+      </c>
+      <c r="H23">
+        <v>13800</v>
+      </c>
+      <c r="I23">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>691</v>
+      </c>
+      <c r="B24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>535</v>
+      </c>
+      <c r="G24" s="15">
+        <v>43523</v>
+      </c>
+      <c r="H24">
+        <v>16800</v>
+      </c>
+      <c r="I24">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>692</v>
+      </c>
+      <c r="B25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>553</v>
+      </c>
+      <c r="G25" s="15">
+        <v>43565</v>
+      </c>
+      <c r="H25">
+        <v>25000</v>
+      </c>
+      <c r="I25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>693</v>
+      </c>
+      <c r="B26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>553</v>
+      </c>
+      <c r="E26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" t="s">
+        <v>455</v>
+      </c>
+      <c r="G26" s="15">
+        <v>43403</v>
+      </c>
+      <c r="H26">
+        <v>20000</v>
+      </c>
+      <c r="I26">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>694</v>
+      </c>
+      <c r="B27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>562</v>
+      </c>
+      <c r="G27" s="15">
+        <v>43428</v>
+      </c>
+      <c r="H27">
+        <v>16500</v>
+      </c>
+      <c r="I27">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>695</v>
+      </c>
+      <c r="B28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>568</v>
+      </c>
+      <c r="G28" s="15">
+        <v>43459</v>
+      </c>
+      <c r="H28">
+        <v>13500</v>
+      </c>
+      <c r="I28">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>696</v>
+      </c>
+      <c r="B29" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>571</v>
+      </c>
+      <c r="G29" s="15">
+        <v>43494</v>
+      </c>
+      <c r="H29">
+        <v>13500</v>
+      </c>
+      <c r="I29">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>697</v>
+      </c>
+      <c r="B30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>595</v>
+      </c>
+      <c r="G30" s="15">
+        <v>43565</v>
+      </c>
+      <c r="H30">
+        <v>15000</v>
+      </c>
+      <c r="I30">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>698</v>
+      </c>
+      <c r="B31" t="s">
+        <v>668</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>598</v>
+      </c>
+      <c r="E31" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" t="s">
+        <v>377</v>
+      </c>
+      <c r="G31" s="15">
+        <v>43495</v>
+      </c>
+      <c r="H31">
+        <v>18000</v>
+      </c>
+      <c r="I31">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>